--- a/medicine/Handicap/Agenda_22/Agenda_22.xlsx
+++ b/medicine/Handicap/Agenda_22/Agenda_22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Agenda 22 (ou Agenda22)  met en œuvre les 22 principes définis par l'Assemblée générale des Nations unies en 1993, sur la base des travaux suédois, complétés en décembre 2006 par la Convention universelle sur les Droits des Personnes handicapées de l'ONU, visant à assurer l'égalité des chances des personnes en situation de handicap.
 Il peut être défini comme un ensemble de règles de « bonne conduite » mises en œuvre par des États et des autorités locales dans les différents domaines de la vie courante : accessibilité, éducation, emploi, loisirs, sports, information, religion, soins de santé, réadaptation...
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Les 87 nations ayant ratifié l'Agenda 22</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Afrique du Sud (30-11-2007)
 Algérie (12-4-2009)
@@ -652,7 +668,9 @@
           <t>Les 145 nations ayant signé l'Agenda 22</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Afrique du Sud (30-3-2007)
 Albanie (22-12-2009)
@@ -833,7 +851,9 @@
           <t>Agenda 22 en France</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier Agenda 22 en France a été créé en Région Poitou-Charentes, le second en Région Languedoc-Roussillon.
 Dans les villes de moins de 20 000 habitants, à Lys Lez Lannoy (Nord), 13 378 habitants voté le 11/12/2013, suivie de Cognac (Charente), 19 243 habitants.
